--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_40.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3977982.117772376</v>
+        <v>3972500.876084258</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10367347.96096032</v>
+        <v>10880928.31117143</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498528</v>
+        <v>243165.4780498525</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7289984.809838502</v>
+        <v>7251170.031501419</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>13.53224518932212</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>78.14109718068133</v>
       </c>
     </row>
     <row r="3">
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>22.35153719005459</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>216.6993815150876</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>264.0648056787161</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>79.81549522942004</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,13 +987,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>196.8897623984489</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>95.29787616176787</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>81.73925401098899</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>304.6703914663555</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.2197593693078</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.9012521798144</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>106.5898915797536</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>135.6939784316956</v>
       </c>
       <c r="H9" t="n">
-        <v>99.90681807664345</v>
+        <v>96.3043728031806</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>32.60330371811373</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.9721212459916</v>
+        <v>141.0437126478466</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0194028815133</v>
+        <v>193.5159300357765</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8328597960067</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>115.1123755586654</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>199.9161113155666</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>162.9319527252035</v>
       </c>
       <c r="U10" t="n">
-        <v>5.088505910839137</v>
+        <v>286.2435974731688</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,19 +1373,19 @@
         <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560535</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>42.71572132711237</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>83.70251495695521</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560535</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>160.3243999861102</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>9.146142788179411</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444121</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.6197054599903095</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>4.019807611472247</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2090,13 +2090,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.7311006784663</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>136.6755965411349</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>182.4443919360873</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>102.1557845699813</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>168.840916548142</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898977</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261728</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545296</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308917</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002293</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541815</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652597</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808209</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S31" t="n">
-        <v>156.741638509605</v>
+        <v>156.7416385096056</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352487</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317884</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445514</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969976</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600552</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652577</v>
+        <v>56.9811888265259</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652651</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352493</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3667,19 +3667,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.136400530892</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541839</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3797,13 +3797,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898977</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261728</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545296</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308917</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002293</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541815</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652597</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808209</v>
+        <v>42.09059921808338</v>
       </c>
       <c r="S43" t="n">
-        <v>156.741638509605</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352487</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317884</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445514</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969976</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600552</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="44">
@@ -4028,7 +4028,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881293</v>
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>18.7084378797726</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>151.0446456820666</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1546.944160717209</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C2" t="n">
-        <v>1177.981643776797</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D2" t="n">
-        <v>819.715945170047</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>819.715945170047</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>812.7704444208435</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>394.8066363190304</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>67.61191635503326</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757143</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y2" t="n">
-        <v>1933.544000781331</v>
+        <v>1210.087414675782</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>76.52029211334889</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1472.812633166741</v>
+        <v>1274.158048767271</v>
       </c>
       <c r="C5" t="n">
-        <v>1103.85011622633</v>
+        <v>1274.158048767271</v>
       </c>
       <c r="D5" t="n">
-        <v>745.5844176195792</v>
+        <v>915.8923501605202</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>915.8923501605202</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>504.9064453709126</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>287.334585005844</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>426.6632408470972</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1058.381051830409</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1685.688719890255</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2232.849924657333</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="W5" t="n">
-        <v>1859.412473230863</v>
+        <v>1741.379601184342</v>
       </c>
       <c r="X5" t="n">
-        <v>1859.412473230863</v>
+        <v>1660.757888831392</v>
       </c>
       <c r="Y5" t="n">
-        <v>1859.412473230863</v>
+        <v>1660.757888831392</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>967.3646662469702</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>792.9116369658432</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>643.9772273045919</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1623.437760398664</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2636.288039261394</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2615.176139663581</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2465.709350526216</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2268.720054686303</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2040.581267197469</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1805.429158965726</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1551.191802237525</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1343.340302031992</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1135.580003267038</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>286.5323736931989</v>
+        <v>426.8072408291969</v>
       </c>
       <c r="C7" t="n">
-        <v>286.5323736931989</v>
+        <v>426.8072408291969</v>
       </c>
       <c r="D7" t="n">
-        <v>286.5323736931989</v>
+        <v>426.8072408291969</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>278.8941472468038</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>278.8941472468038</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>278.8941472468038</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>545.0935070360306</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>750.9168718721348</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>925.0117672607337</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>1050.459343859349</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931989</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="U7" t="n">
-        <v>286.5323736931989</v>
+        <v>426.8072408291969</v>
       </c>
       <c r="V7" t="n">
-        <v>286.5323736931989</v>
+        <v>426.8072408291969</v>
       </c>
       <c r="W7" t="n">
-        <v>286.5323736931989</v>
+        <v>426.8072408291969</v>
       </c>
       <c r="X7" t="n">
-        <v>286.5323736931989</v>
+        <v>426.8072408291969</v>
       </c>
       <c r="Y7" t="n">
-        <v>286.5323736931989</v>
+        <v>426.8072408291969</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>846.9387812735522</v>
+        <v>1515.51165927746</v>
       </c>
       <c r="C8" t="n">
-        <v>477.9762643331405</v>
+        <v>1146.549142337048</v>
       </c>
       <c r="D8" t="n">
-        <v>477.9762643331405</v>
+        <v>788.2834437302974</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331405</v>
+        <v>788.2834437302974</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>781.337942981094</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>364.9543476585608</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,25 +4802,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>133.754813579302</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>625.0145369943178</v>
       </c>
       <c r="L8" t="n">
-        <v>785.3786496953994</v>
+        <v>1088.833034602853</v>
       </c>
       <c r="M8" t="n">
-        <v>1417.096460678711</v>
+        <v>1396.720810192848</v>
       </c>
       <c r="N8" t="n">
-        <v>1794.077600226718</v>
+        <v>1714.204340257481</v>
       </c>
       <c r="O8" t="n">
-        <v>2341.238804993795</v>
+        <v>2377.651953127193</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2587.634037311183</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2589.482533866956</v>
       </c>
       <c r="T8" t="n">
-        <v>2482.349229285934</v>
+        <v>2589.482533866956</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.657526031085</v>
+        <v>2589.482533866956</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.594638687514</v>
+        <v>2258.419646523385</v>
       </c>
       <c r="W8" t="n">
-        <v>1544.8259834174</v>
+        <v>1905.650991253271</v>
       </c>
       <c r="X8" t="n">
-        <v>1544.8259834174</v>
+        <v>1905.650991253271</v>
       </c>
       <c r="Y8" t="n">
-        <v>1154.686651441588</v>
+        <v>1515.51165927746</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>967.3646662469702</v>
+        <v>950.3768326837275</v>
       </c>
       <c r="C9" t="n">
-        <v>792.9116369658432</v>
+        <v>775.9238034026005</v>
       </c>
       <c r="D9" t="n">
-        <v>643.9772273045919</v>
+        <v>626.9893937413492</v>
       </c>
       <c r="E9" t="n">
-        <v>484.7397722991365</v>
+        <v>467.7519387358936</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260214</v>
+        <v>321.2173807627786</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>184.1527560842981</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>86.87561183866114</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>82.66051509321028</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>209.8981782428303</v>
       </c>
       <c r="L9" t="n">
-        <v>520.6009841418684</v>
+        <v>427.30745960555</v>
       </c>
       <c r="M9" t="n">
-        <v>1161.146333608973</v>
+        <v>720.4483727199025</v>
       </c>
       <c r="N9" t="n">
-        <v>1822.094502051329</v>
+        <v>1387.992772746913</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2025.288740746704</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2519.771872394146</v>
       </c>
       <c r="Q9" t="n">
-        <v>2636.288039261394</v>
+        <v>2589.646466441933</v>
       </c>
       <c r="R9" t="n">
-        <v>2615.176139663581</v>
+        <v>2589.646466441933</v>
       </c>
       <c r="S9" t="n">
-        <v>2465.709350526216</v>
+        <v>2447.178069827947</v>
       </c>
       <c r="T9" t="n">
-        <v>2268.720054686303</v>
+        <v>2251.707433428172</v>
       </c>
       <c r="U9" t="n">
-        <v>2040.581267197469</v>
+        <v>2023.593433634226</v>
       </c>
       <c r="V9" t="n">
-        <v>1805.429158965726</v>
+        <v>1788.441325402484</v>
       </c>
       <c r="W9" t="n">
-        <v>1551.191802237525</v>
+        <v>1534.203968674282</v>
       </c>
       <c r="X9" t="n">
-        <v>1343.340302031992</v>
+        <v>1326.352468468749</v>
       </c>
       <c r="Y9" t="n">
-        <v>1135.580003267038</v>
+        <v>1118.592169703795</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>692.6306003510332</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>523.6944174231263</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>523.6944174231263</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>523.6944174231263</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>376.804469925216</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>208.1976249205994</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4960,52 +4960,52 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
+        <v>58.31196334317245</v>
+      </c>
+      <c r="K10" t="n">
+        <v>195.3283787968257</v>
+      </c>
+      <c r="L10" t="n">
+        <v>426.1886520796818</v>
+      </c>
+      <c r="M10" t="n">
+        <v>679.9875643521469</v>
+      </c>
+      <c r="N10" t="n">
+        <v>933.1863221810873</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1151.040060928126</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1313.930887593675</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1343.27297252565</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1226.997845698715</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1025.062379723395</v>
+      </c>
+      <c r="T10" t="n">
+        <v>860.4846496979371</v>
+      </c>
+      <c r="U10" t="n">
+        <v>571.3497027553424</v>
+      </c>
+      <c r="V10" t="n">
+        <v>571.3497027553424</v>
+      </c>
+      <c r="W10" t="n">
+        <v>281.9325327183818</v>
+      </c>
+      <c r="X10" t="n">
         <v>53.94298182036445</v>
       </c>
-      <c r="K10" t="n">
-        <v>154.9909114159743</v>
-      </c>
-      <c r="L10" t="n">
-        <v>339.8239063167927</v>
-      </c>
-      <c r="M10" t="n">
-        <v>545.0935070360306</v>
-      </c>
-      <c r="N10" t="n">
-        <v>750.9168718721348</v>
-      </c>
-      <c r="O10" t="n">
-        <v>925.0117672607337</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1050.459343859349</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1053.877663279709</v>
-      </c>
-      <c r="R10" t="n">
-        <v>923.3997019991118</v>
-      </c>
-      <c r="S10" t="n">
-        <v>923.3997019991118</v>
-      </c>
-      <c r="T10" t="n">
-        <v>697.7705053114768</v>
-      </c>
-      <c r="U10" t="n">
-        <v>692.6306003510332</v>
-      </c>
-      <c r="V10" t="n">
-        <v>692.6306003510332</v>
-      </c>
-      <c r="W10" t="n">
-        <v>692.6306003510332</v>
-      </c>
-      <c r="X10" t="n">
-        <v>692.6306003510332</v>
-      </c>
       <c r="Y10" t="n">
-        <v>692.6306003510332</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5021,46 +5021,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5072,10 +5072,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5084,7 +5084,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>365.9405071576781</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>219.0505596597677</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703109</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>545.3854261579752</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>397.4723325755821</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F16" t="n">
-        <v>397.4723325755821</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168596</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436267</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852254</v>
@@ -5552,13 +5552,13 @@
         <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1368.154262550759</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3114.186543342963</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C19" t="n">
-        <v>2945.250360415056</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>2795.13372100272</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>2647.220627420327</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>2647.220627420327</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>2480.024528135207</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>2338.312696977405</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>4690.833152398593</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S19" t="n">
-        <v>4507.978318053497</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T19" t="n">
-        <v>4288.376853076438</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U19" t="n">
-        <v>3999.301626420636</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V19" t="n">
-        <v>3744.61713821475</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W19" t="n">
-        <v>3744.61713821475</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X19" t="n">
-        <v>3516.627587316732</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y19" t="n">
-        <v>3295.835008173202</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,55 +5744,55 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192589</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694704</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5817,40 +5817,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913852</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>198.027470314254</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
     <row r="23">
@@ -5981,10 +5981,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6008,13 +6008,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6060,10 +6060,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6072,22 +6072,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>557.5558870561822</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>959.9969310299521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>739.2043518864219</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>197.0043242297712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>197.0043242297712</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1263.15498529716</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1035.165434399143</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>814.3728552556131</v>
       </c>
     </row>
     <row r="29">
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,61 +6595,61 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319306</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656799</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150003</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942633</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580091</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345451</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384022</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
         <v>1978.840049838285</v>
@@ -6658,13 +6658,13 @@
         <v>1748.685508594054</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518749</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.338681582388</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400514</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>1470.207143961552</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,10 +6871,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
@@ -6889,16 +6889,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6935,7 +6935,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075813</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M36" t="n">
-        <v>913.2907898187001</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345483</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384027</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7123,13 +7123,13 @@
         <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7257,13 +7257,13 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>740.5562989961525</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M39" t="n">
-        <v>1337.934786622704</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,10 +7445,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
         <v>3094.515198591809</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>506.2737913123336</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,55 +7543,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319306</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656799</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150003</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942633</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580091</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345451</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384022</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382517</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931272</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547833</v>
@@ -7606,13 +7606,13 @@
         <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518749</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582388</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400514</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7634,52 +7634,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111739</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075831</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.533952578166</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>1804.131916132773</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>491.0125592675714</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
         <v>175.9033664000583</v>
@@ -7801,7 +7801,7 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>130.9032309267716</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
@@ -8234,7 +8234,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8301,16 +8301,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>441.9679254493644</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>217.7528741602767</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>184.4918451070951</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8471,10 +8471,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>21.92441186131452</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>20.28047285364772</v>
       </c>
       <c r="N9" t="n">
-        <v>466.9610371613041</v>
+        <v>376.6114530830308</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>43.26340623007681</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>122.8084169651565</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>5.19973830615865</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>80.64613085857522</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>62.35543909864944</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>11.93987647707743</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>43.26526345294988</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>63.36835372228751</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>117.682081788449</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>2.785327524179593e-12</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>2.785327524179593e-12</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26029,13 +26029,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>67.54000767002822</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>686644.603680627</v>
+        <v>664253.6978681048</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>664253.6978681048</v>
+        <v>645558.1756637382</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>610239.5014876033</v>
+        <v>610239.5014876032</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>610239.5014876031</v>
+        <v>610239.5014876032</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>620660.8791183111</v>
+        <v>620660.8791183112</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>620660.8791183111</v>
+        <v>620660.8791183112</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642839</v>
       </c>
       <c r="E2" t="n">
         <v>807146.5996900063</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="G2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807146.5996900066</v>
+      </c>
+      <c r="I2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="H2" t="n">
-        <v>807146.599690006</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="K2" t="n">
+        <v>821041.7698642836</v>
+      </c>
+      <c r="L2" t="n">
+        <v>821041.7698642835</v>
+      </c>
+      <c r="M2" t="n">
+        <v>821041.7698642848</v>
+      </c>
+      <c r="N2" t="n">
+        <v>821041.7698642834</v>
+      </c>
+      <c r="O2" t="n">
+        <v>821041.7698642848</v>
+      </c>
+      <c r="P2" t="n">
         <v>807146.5996900063</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="K2" t="n">
-        <v>821041.7698642851</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.7698642837</v>
-      </c>
-      <c r="M2" t="n">
-        <v>821041.7698642833</v>
-      </c>
-      <c r="N2" t="n">
-        <v>821041.7698642848</v>
-      </c>
-      <c r="O2" t="n">
-        <v>821041.769864285</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900061</v>
       </c>
     </row>
     <row r="3">
@@ -26366,13 +26366,13 @@
         <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>196446.3877966352</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>148514.7883929637</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>631730.7903618223</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363166</v>
+        <v>19427.71799363181</v>
       </c>
       <c r="L3" t="n">
-        <v>3.126388037344441e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080584</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207826.5542404877</v>
+        <v>209922.4154630332</v>
       </c>
       <c r="C4" t="n">
-        <v>207826.5542404877</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="D4" t="n">
-        <v>174833.3509411825</v>
+        <v>150514.8901349549</v>
       </c>
       <c r="E4" t="n">
-        <v>5533.218327813875</v>
+        <v>5677.536566682798</v>
       </c>
       <c r="F4" t="n">
-        <v>5533.218327813855</v>
+        <v>5677.536566682799</v>
       </c>
       <c r="G4" t="n">
-        <v>5533.218327813864</v>
+        <v>5677.536566682811</v>
       </c>
       <c r="H4" t="n">
-        <v>5533.218327813785</v>
+        <v>5677.536566682843</v>
       </c>
       <c r="I4" t="n">
-        <v>5533.218327813825</v>
+        <v>5677.536566682731</v>
       </c>
       <c r="J4" t="n">
-        <v>5533.218327813826</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
-        <v>13524.07759090725</v>
+        <v>13668.39582977623</v>
       </c>
       <c r="L4" t="n">
-        <v>13524.07759090731</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="M4" t="n">
-        <v>13524.07759090729</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="N4" t="n">
-        <v>13524.07759090729</v>
+        <v>13668.39582977621</v>
       </c>
       <c r="O4" t="n">
-        <v>13524.07759090725</v>
+        <v>13668.39582977623</v>
       </c>
       <c r="P4" t="n">
-        <v>5533.218327813826</v>
+        <v>5677.536566682782</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>91342.4859237614</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-59611.7416541586</v>
+        <v>-61707.60287670407</v>
       </c>
       <c r="C6" t="n">
-        <v>530356.1375603857</v>
+        <v>360766.3609955224</v>
       </c>
       <c r="D6" t="n">
-        <v>373890.0952041426</v>
+        <v>430669.6054126039</v>
       </c>
       <c r="E6" t="n">
-        <v>-70561.83984252115</v>
+        <v>68615.7429375941</v>
       </c>
       <c r="F6" t="n">
-        <v>700490.8515382851</v>
+        <v>700346.5332994162</v>
       </c>
       <c r="G6" t="n">
-        <v>700490.8515382851</v>
+        <v>700346.5332994163</v>
       </c>
       <c r="H6" t="n">
-        <v>700490.8515382851</v>
+        <v>700346.5332994168</v>
       </c>
       <c r="I6" t="n">
-        <v>700490.8515382855</v>
+        <v>700346.5332994162</v>
       </c>
       <c r="J6" t="n">
-        <v>524067.6323456923</v>
+        <v>523923.3141068236</v>
       </c>
       <c r="K6" t="n">
-        <v>684925.858425831</v>
+        <v>684781.5401869603</v>
       </c>
       <c r="L6" t="n">
-        <v>704353.5764194611</v>
+        <v>704209.258180592</v>
       </c>
       <c r="M6" t="n">
-        <v>580145.0657114021</v>
+        <v>580000.7474725347</v>
       </c>
       <c r="N6" t="n">
-        <v>704353.576419462</v>
+        <v>704209.2581805917</v>
       </c>
       <c r="O6" t="n">
-        <v>704353.5764194624</v>
+        <v>704209.2581805931</v>
       </c>
       <c r="P6" t="n">
-        <v>700490.8515382853</v>
+        <v>700346.5332994164</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>593.4761003380651</v>
+        <v>766.8908137745149</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.407551324172389e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L2" t="n">
-        <v>3.907985046680551e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>173.4147134364498</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>601.0846865671589</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.407551324172389e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450925</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>138.3990710555391</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>308.0968414753722</v>
       </c>
     </row>
     <row r="3">
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>22.84842199848241</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>35.43826180874041</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>117.8655643935457</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>289.915605449049</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27780,22 +27780,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>51.1360864848013</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>70.97284265824356</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78.06345019712506</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>91.61937460340293</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>32.17681350845452</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>209.6001127307728</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0990146561703</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.6080614975539</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>149.93177552594</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>113.8623632556829</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>59.10480584284812</v>
       </c>
       <c r="U10" t="n">
-        <v>281.1721487472578</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28333,16 +28333,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,13 +28375,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28390,10 +28390,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.5791225147744e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28810,13 +28810,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.468526220540144e-14</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203958</v>
+        <v>24.28464749203977</v>
       </c>
     </row>
     <row r="44">
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.38583356919825</v>
+        <v>3.082978145827193</v>
       </c>
       <c r="H8" t="n">
-        <v>24.43391804055158</v>
+        <v>31.57354993595275</v>
       </c>
       <c r="I8" t="n">
-        <v>91.97984867651562</v>
+        <v>118.856514967003</v>
       </c>
       <c r="J8" t="n">
-        <v>202.4946418937401</v>
+        <v>261.663916404401</v>
       </c>
       <c r="K8" t="n">
-        <v>303.4869768779021</v>
+        <v>392.1663813172661</v>
       </c>
       <c r="L8" t="n">
-        <v>376.5024309712531</v>
+        <v>486.5170737476252</v>
       </c>
       <c r="M8" t="n">
-        <v>418.9314987074825</v>
+        <v>541.3439863484795</v>
       </c>
       <c r="N8" t="n">
-        <v>425.710248335967</v>
+        <v>550.1034980053111</v>
       </c>
       <c r="O8" t="n">
-        <v>401.9861157822519</v>
+        <v>519.4471340677419</v>
       </c>
       <c r="P8" t="n">
-        <v>343.0858495426701</v>
+        <v>443.336111092633</v>
       </c>
       <c r="Q8" t="n">
-        <v>257.6431848457577</v>
+        <v>332.9269562451965</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>193.6611259528176</v>
       </c>
       <c r="S8" t="n">
-        <v>54.36718245810517</v>
+        <v>70.25336449803723</v>
       </c>
       <c r="T8" t="n">
-        <v>10.44398644916534</v>
+        <v>13.49573683335854</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.2466382516661754</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.276533498840366</v>
+        <v>1.649538731514994</v>
       </c>
       <c r="H9" t="n">
-        <v>12.32862615985301</v>
+        <v>15.93107143331587</v>
       </c>
       <c r="I9" t="n">
-        <v>43.95082441182841</v>
+        <v>56.79332913330135</v>
       </c>
       <c r="J9" t="n">
-        <v>120.6044214847383</v>
+        <v>155.8452360331776</v>
       </c>
       <c r="K9" t="n">
-        <v>206.1321659070429</v>
+        <v>266.3643310446822</v>
       </c>
       <c r="L9" t="n">
-        <v>277.1701353512822</v>
+        <v>358.1597144896921</v>
       </c>
       <c r="M9" t="n">
-        <v>323.4444746842454</v>
+        <v>417.9554935071105</v>
       </c>
       <c r="N9" t="n">
-        <v>332.0050874900653</v>
+        <v>429.0175317548581</v>
       </c>
       <c r="O9" t="n">
-        <v>303.7197925947077</v>
+        <v>392.4672261776048</v>
       </c>
       <c r="P9" t="n">
-        <v>243.7619099671574</v>
+        <v>314.9895495293852</v>
       </c>
       <c r="Q9" t="n">
-        <v>162.9483813607457</v>
+        <v>210.5621721140895</v>
       </c>
       <c r="R9" t="n">
-        <v>79.25705355080804</v>
+        <v>102.4160977338871</v>
       </c>
       <c r="S9" t="n">
-        <v>23.71104985784626</v>
+        <v>30.63945845599121</v>
       </c>
       <c r="T9" t="n">
-        <v>5.145325813308317</v>
+        <v>6.648798659045084</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.1085222849680918</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.070202803888314</v>
+        <v>1.382917860904863</v>
       </c>
       <c r="H10" t="n">
-        <v>9.515075838207016</v>
+        <v>12.29539698149961</v>
       </c>
       <c r="I10" t="n">
-        <v>32.18391704784131</v>
+        <v>41.58811167157534</v>
       </c>
       <c r="J10" t="n">
-        <v>75.66333823490379</v>
+        <v>97.77229276597379</v>
       </c>
       <c r="K10" t="n">
-        <v>124.3381075790241</v>
+        <v>160.6699114760376</v>
       </c>
       <c r="L10" t="n">
-        <v>159.1099695889954</v>
+        <v>205.6021699748921</v>
       </c>
       <c r="M10" t="n">
-        <v>167.7591540676927</v>
+        <v>216.778660687114</v>
       </c>
       <c r="N10" t="n">
-        <v>163.7702163441091</v>
+        <v>211.6241486601052</v>
       </c>
       <c r="O10" t="n">
-        <v>151.2683017714137</v>
+        <v>195.4691536486256</v>
       </c>
       <c r="P10" t="n">
-        <v>129.436164572092</v>
+        <v>167.2576292861662</v>
       </c>
       <c r="Q10" t="n">
-        <v>89.61489115104783</v>
+        <v>115.8005128799517</v>
       </c>
       <c r="R10" t="n">
-        <v>48.12020970937817</v>
+        <v>62.18101581850409</v>
       </c>
       <c r="S10" t="n">
-        <v>18.65071613685361</v>
+        <v>24.10048672140564</v>
       </c>
       <c r="T10" t="n">
-        <v>4.572684707522795</v>
+        <v>5.908830860229867</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.0754318833220835</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31853,7 +31853,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>332.1692388321076</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,19 +32072,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>407.2177391203972</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>638.9422653403558</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,19 +32546,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950821</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32792,25 +32792,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>530.4152909475304</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,31 +33257,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>714.932815742495</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>297.7596336167232</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>535.8585467435948</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,16 +33734,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>632.5879274568745</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33977,16 +33977,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>658.2124561388958</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>216.0947523943934</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,13 +34454,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968502</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34778,7 +34778,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>214.3003567596932</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>623.2783662115914</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>80.61801187771471</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>496.2219428434503</v>
       </c>
       <c r="L8" t="n">
-        <v>140.7360160012659</v>
+        <v>468.5035329379147</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>310.9977531212068</v>
       </c>
       <c r="N8" t="n">
-        <v>380.7890298464712</v>
+        <v>320.6904344087201</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>670.1491039088005</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>212.1031153373635</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>110.6212663707471</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>29.00760936651093</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>128.5228920703232</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>219.6053347098179</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>296.1019324387399</v>
       </c>
       <c r="N9" t="n">
-        <v>667.6244125680362</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>643.7333010098898</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>499.4779107549921</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>70.58039802806795</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>4.413112649301013</v>
       </c>
       <c r="K10" t="n">
-        <v>102.0686157531412</v>
+        <v>138.4004196501548</v>
       </c>
       <c r="L10" t="n">
-        <v>186.6999948493115</v>
+        <v>233.1921952352082</v>
       </c>
       <c r="M10" t="n">
-        <v>207.3430310295333</v>
+        <v>256.3625376489546</v>
       </c>
       <c r="N10" t="n">
-        <v>207.9023887233377</v>
+        <v>255.7563210393338</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>220.0542815626653</v>
       </c>
       <c r="P10" t="n">
-        <v>126.7147238369855</v>
+        <v>164.5361885510597</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.452847899353443</v>
+        <v>29.63846962825735</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M11" t="n">
         <v>735.3001107902948</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>189.5729943876631</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>265.0837051983789</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>496.3460208959114</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902925</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,19 +36194,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>37.76383318075186</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,10 +36373,10 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>399.073578864197</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36613,10 +36613,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,31 +36905,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>572.7987818204766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>163.785226202393</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549929</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016745</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.626661811171</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986645</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919379</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37081,13 +37081,13 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>393.2623022991504</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37303,10 +37303,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>490.4538935348562</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37625,16 +37625,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>526.8707440555626</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>77.54037261451923</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549929</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016745</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.626661811171</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930847</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.910780481947</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.546547198085</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986645</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919379</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396443</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,13 +38102,13 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748319</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>55.96455263125101</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4088575.846741</v>
+        <v>4084270.130364928</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>109.4422623037129</v>
       </c>
       <c r="E2" t="n">
-        <v>204.1325253095392</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>52.52844106858939</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>208.2793294336578</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>163.9206648785247</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.78417002079501</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089716</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>181.1089350724428</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250823</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.7112368822934</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853708</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>55.33451502181066</v>
+        <v>192.5627265154904</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>72.38021291617747</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>12.9169039459368</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>326.1230146347445</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>45.85493162873587</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>104.4016004285983</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444139</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560538</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>159.347171033648</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.294712846224</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856568</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012181</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016447</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272884</v>
+        <v>171.5573199799892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.2409687174122</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>53.1193700387796</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>105.8460632289458</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>94.05355358058034</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695535</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>114.663801646256</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856558</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206802</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.1190787273689</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,7 +2724,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856558</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,16 +2772,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>266.6707094398014</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>81.07546534818425</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>217.6587144826188</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>13.03790159951684</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>125.2851635392052</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>188.4343500806765</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>220.9987113889039</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>186.4479095884334</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1196.778435292677</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C2" t="n">
-        <v>1196.778435292677</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="D2" t="n">
-        <v>838.5127366859269</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1936.146930626913</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1583.378275356799</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>1583.378275356799</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y2" t="n">
-        <v>1583.378275356799</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249.7161456655658</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C4" t="n">
-        <v>249.7161456655658</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>645.6530336776428</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>431.3646104958056</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>431.3646104958056</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="U4" t="n">
-        <v>431.3646104958056</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="V4" t="n">
-        <v>431.3646104958056</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="W4" t="n">
-        <v>431.3646104958056</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="X4" t="n">
-        <v>431.3646104958056</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y4" t="n">
-        <v>431.3646104958056</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776383</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359717</v>
+        <v>240.388315801204</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292212</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177348</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733121</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224066</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977172</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642687</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791249</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018219</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018219</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332389</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332389</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332389</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332389</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>2338.033285077397</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.567526816317</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615923</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572639</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315294</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414845</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435189</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.317569050017</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>382.8183646524923</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C7" t="n">
-        <v>382.8183646524923</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>382.8183646524923</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>382.8183646524923</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866324</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477906</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658204</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502493</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594893</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064333</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064333</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064333</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064333</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064333</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064333</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>672.2355346894528</v>
+        <v>533.621179645333</v>
       </c>
       <c r="W7" t="n">
-        <v>382.8183646524923</v>
+        <v>533.621179645333</v>
       </c>
       <c r="X7" t="n">
-        <v>382.8183646524923</v>
+        <v>533.621179645333</v>
       </c>
       <c r="Y7" t="n">
-        <v>382.8183646524923</v>
+        <v>533.621179645333</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>625.0058556773331</v>
+        <v>1590.992732478547</v>
       </c>
       <c r="C8" t="n">
-        <v>551.8945294993761</v>
+        <v>1222.030215538135</v>
       </c>
       <c r="D8" t="n">
-        <v>193.6288308926255</v>
+        <v>863.7645169313847</v>
       </c>
       <c r="E8" t="n">
-        <v>193.6288308926255</v>
+        <v>477.9762643331405</v>
       </c>
       <c r="F8" t="n">
-        <v>186.6833301434221</v>
+        <v>66.99035954353293</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202536</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341007</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
         <v>646.0499938541462</v>
@@ -4813,43 +4813,43 @@
         <v>1198.863252100346</v>
       </c>
       <c r="M8" t="n">
-        <v>1830.581063083657</v>
+        <v>1658.154845695085</v>
       </c>
       <c r="N8" t="n">
-        <v>2024.91527597564</v>
+        <v>1852.489058587068</v>
       </c>
       <c r="O8" t="n">
-        <v>2232.84992465733</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996624</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018219</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018219</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.934053515047</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782759</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2072.44248852791</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1741.379601184339</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1388.610945914225</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1015.145187653145</v>
+        <v>2367.73190451848</v>
       </c>
       <c r="Y8" t="n">
-        <v>625.0058556773331</v>
+        <v>1977.592572542669</v>
       </c>
     </row>
     <row r="9">
@@ -4868,40 +4868,40 @@
         <v>643.9772273045919</v>
       </c>
       <c r="E9" t="n">
-        <v>484.7397722991363</v>
+        <v>484.7397722991365</v>
       </c>
       <c r="F9" t="n">
-        <v>338.2052143260213</v>
+        <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852433</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004789</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.60223367726</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>502.0306379830699</v>
+        <v>296.5836898399692</v>
       </c>
       <c r="L9" t="n">
-        <v>1006.392177849189</v>
+        <v>800.9452297060877</v>
       </c>
       <c r="M9" t="n">
-        <v>1623.437760398664</v>
+        <v>1441.490579173192</v>
       </c>
       <c r="N9" t="n">
-        <v>1822.094502051329</v>
+        <v>1640.147320825857</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2189.58332957858</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>254.5157376768982</v>
+        <v>538.7834855023629</v>
       </c>
       <c r="C10" t="n">
-        <v>254.5157376768982</v>
+        <v>369.8473025744559</v>
       </c>
       <c r="D10" t="n">
-        <v>254.5157376768982</v>
+        <v>219.7306631621202</v>
       </c>
       <c r="E10" t="n">
-        <v>254.5157376768982</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="F10" t="n">
-        <v>208.1976249205993</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="G10" t="n">
-        <v>208.1976249205993</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036439</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036439</v>
+        <v>71.81756957972706</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159742</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L10" t="n">
-        <v>339.8239063167926</v>
+        <v>339.8239063167927</v>
       </c>
       <c r="M10" t="n">
         <v>545.0935070360306</v>
@@ -4995,19 +4995,19 @@
         <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>764.7254868573889</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>764.7254868573889</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="W10" t="n">
-        <v>475.3083168204283</v>
+        <v>948.4215012306199</v>
       </c>
       <c r="X10" t="n">
-        <v>475.3083168204283</v>
+        <v>720.4319503326026</v>
       </c>
       <c r="Y10" t="n">
-        <v>254.5157376768982</v>
+        <v>720.4319503326026</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923.4916164683266</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780505003</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381644</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557711</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578605</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578605</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000585</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2273.672861378251</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1984.597634722449</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611857</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683266</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191926</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845745</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400352</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703119</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>526.565882642405</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>376.4492432300692</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>376.4492432300692</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>229.5592957321589</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>229.5592957321589</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5539,28 +5539,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273908</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239598</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891998</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446605</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>634.9279362553159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1037.368980229086</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>816.5764010855556</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,55 +5746,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5837,13 +5837,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
         <v>2129.438138565707</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2978.516248701936</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2809.580065774029</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2809.580065774029</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2661.666972191636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2514.777024693725</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2514.777024693725</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3160.164713532175</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075851</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191922</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349506</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061502</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>878.3568999154046</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504995</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381638</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557706</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578603</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832661</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855602</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.2406881998</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993913</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956952</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058935</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154046</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6220,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273892</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803934</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516138</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167372</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>782.841029837709</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>782.841029837709</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648817</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611857</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138393</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138393</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>94.56320294380271</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913446</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L30" t="n">
-        <v>2876.560776129205</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>3473.939263755757</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>3482.038612289356</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.9487421954783</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>491.0125592675714</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6663,10 +6663,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1062.389786169248</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>841.597207025718</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6700,7 +6700,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6709,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,10 +6776,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
         <v>542.9134462654469</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1757.603793154328</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1502.919304948441</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1213.50213491148</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>985.5125840134626</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7019,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>802.9288273958739</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>633.992644467967</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>483.8760050556313</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>335.9629114732381</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>189.0729639753278</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510509</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1722.776592304622</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.369871369644</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.5772922261136</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7262,19 +7262,19 @@
         <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>738.7889117913853</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1366.386875345992</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>1918.296605585279</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P39" t="n">
-        <v>2341.919755080347</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3260.450525729772</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C40" t="n">
-        <v>3091.514342801865</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D40" t="n">
-        <v>2941.39770338953</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E40" t="n">
-        <v>2793.484609807137</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>2646.594662309226</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>2479.398563024106</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>4404.185983673937</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U40" t="n">
-        <v>4115.110757018135</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V40" t="n">
-        <v>3860.426268812248</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W40" t="n">
-        <v>3860.426268812248</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X40" t="n">
-        <v>3632.436717914231</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y40" t="n">
-        <v>3442.098990560012</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="41">
@@ -7405,34 +7405,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>726.955532171245</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>558.0193492433381</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1465.154832249753</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1175.737662212792</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>947.7481113147751</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>726.955532171245</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7651,16 +7651,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7727,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>727.9786782557277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>559.0424953278208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1647.826443164475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1358.409273127515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1130.419722229497</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>909.6271430859674</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,10 +8072,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747414</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8461,19 +8461,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>275.3456371407394</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>38.14709430780866</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>56.94306717106264</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>441.9679254493644</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>5.115907697472721e-12</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>-1.074107778517319e-12</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-2.300097184559153e-14</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>7.899650064979994</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292269</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>45.84813034729905</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>87.17534280744425</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>119.8635921600913</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>46.24115926564352</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>52.58301945237181</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.71290145456837</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,16 +24660,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>19.85228889678962</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>144.6341900408529</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.5257599066253</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>152.486236692752</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>92.12028678808304</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>30.15030327141827</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>31.13893193492413</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>30.95754073885482</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>610239.5014876033</v>
+        <v>610239.5014876032</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>610239.5014876033</v>
+        <v>610239.5014876032</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>610239.5014876033</v>
+        <v>610239.5014876032</v>
       </c>
     </row>
     <row r="15">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>821041.769864283</v>
+      </c>
+      <c r="C2" t="n">
         <v>821041.7698642832</v>
       </c>
-      <c r="C2" t="n">
-        <v>821041.7698642834</v>
-      </c>
       <c r="D2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900066</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="F2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="G2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="G2" t="n">
-        <v>807146.599690006</v>
-      </c>
       <c r="H2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900065</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="J2" t="n">
         <v>807146.5996900061</v>
@@ -26343,16 +26343,16 @@
         <v>807146.5996900062</v>
       </c>
       <c r="L2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
         <v>807146.5996900062</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481122</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808071</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>4.965909283782821e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.510708059</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,40 +26420,40 @@
         <v>209922.4154630333</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630335</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682587</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682686</v>
+        <v>5677.536566682784</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682663</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
-        <v>5677.536566682827</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.53656668287</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682723</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682719</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="O4" t="n">
         <v>5677.536566682745</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.0780634094</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.04517084674</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-61707.60287670416</v>
       </c>
       <c r="C6" t="n">
-        <v>528260.2763378414</v>
+        <v>528260.2763378405</v>
       </c>
       <c r="D6" t="n">
-        <v>372456.4702440451</v>
+        <v>372456.4702440459</v>
       </c>
       <c r="E6" t="n">
-        <v>-70706.15808139023</v>
+        <v>-71053.53733574682</v>
       </c>
       <c r="F6" t="n">
-        <v>700346.5332994165</v>
+        <v>699999.1540450593</v>
       </c>
       <c r="G6" t="n">
-        <v>700346.5332994163</v>
+        <v>699999.1540450596</v>
       </c>
       <c r="H6" t="n">
-        <v>700346.5332994163</v>
+        <v>699999.1540450595</v>
       </c>
       <c r="I6" t="n">
-        <v>700346.5332994172</v>
+        <v>699999.1540450592</v>
       </c>
       <c r="J6" t="n">
-        <v>523923.3141068235</v>
+        <v>523575.9348524665</v>
       </c>
       <c r="K6" t="n">
-        <v>700346.533299416</v>
+        <v>699999.1540450595</v>
       </c>
       <c r="L6" t="n">
-        <v>700346.5332994162</v>
+        <v>699999.1540450595</v>
       </c>
       <c r="M6" t="n">
-        <v>576138.0225913574</v>
+        <v>575790.643337001</v>
       </c>
       <c r="N6" t="n">
-        <v>700346.5332994167</v>
+        <v>699999.1540450593</v>
       </c>
       <c r="O6" t="n">
-        <v>700346.5332994163</v>
+        <v>699999.1540450595</v>
       </c>
       <c r="P6" t="n">
-        <v>700346.5332994165</v>
+        <v>699999.1540450595</v>
       </c>
     </row>
   </sheetData>
@@ -26697,7 +26697,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.930230613354667e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.743664217086</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26758,10 +26758,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
         <v>1367.975500341674</v>
@@ -26792,25 +26792,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545548</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545548</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.930230613354667e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209791</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036091</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,19 +26980,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-5.532054515535514e-14</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450942</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545546</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450942</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>9.930230613354667e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450942</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>245.24077931697</v>
       </c>
       <c r="E2" t="n">
-        <v>177.7978447627226</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>94.13675091156844</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>16.75577602442652</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>190.7623767421583</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643572</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481187</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>168.1320336449702</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549144</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,10 +27833,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>196.8031283020173</v>
+        <v>59.57491680833758</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>292.8926788548301</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>43.60808604372448</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>99.56611639419538</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28067,19 +28067,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>182.1213979079927</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28149,16 +28149,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-4.816119231638023e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28617,22 +28617,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-1.02921323512636e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-6.440674018558038e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2.778468545485367e-12</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340043</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140997</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554457</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081574</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630665</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405363</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338299</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119861</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954663</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044134</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633782</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727376</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473542</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472034</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141095</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188902</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890685</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396463</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.20177816491</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478004</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983119</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736697</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923044</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479575</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034973</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.0919284713147</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.27496629637266</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619144</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.68117709940786</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644432</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492001</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281357</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302225</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246922</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917248</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666592</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175828</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383786</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329677999</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701158</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695334</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197219</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315604</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717705</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>388.51401392977</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>359.7678776111896</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32557,19 +32557,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>309.9424824173362</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162557</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>381.2855185329334</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>700.080820443724</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121569</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>301.1823051500312</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071781</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214695</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,43 +33095,43 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>100.2764607028594</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>139.5228722182826</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>440.316328560036</v>
+        <v>438.5310889592611</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>171.7382405950817</v>
+        <v>400.8433522134843</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33979,34 +33979,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.2560498238272</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>173.8200325543355</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34447,31 +34447,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>297.7596336167232</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343416</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435297</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.814464806096</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492232</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530447</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770677</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031296</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713854</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262934</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.31973343389</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245895</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735644</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535897</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.8709020871394</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850083</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458878</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873135</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35181,19 +35181,19 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>463.9309026209492</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>210.0349986683738</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>125.2337941037465</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>623.2783662115914</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>191.3582339884371</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35585,10 +35585,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>245.9177694853256</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>217.6338436891713</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>167.3462379728918</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367818</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243155</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>249.9438064496001</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992795</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625073</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774858</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>159.0482712280129</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238448</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071393</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625073</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789202</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.7540807028594299</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>8.181160134949316</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>302.474889585677</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>37.7638331807514</v>
+        <v>266.868944799154</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,25 +37627,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q39" t="n">
-        <v>213.2742757378057</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>35.97859357997653</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>163.785226202393</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4084270.130364928</v>
+        <v>4086030.660667713</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>109.4422623037129</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -676,7 +676,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>142.6624555512281</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -825,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>83.59830597394804</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>208.2793294336578</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>163.9206648785247</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>48.26252137233787</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>91.13431341868522</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>192.5627265154904</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>224.1338117184385</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>326.1230146347445</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.478816038099879</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>104.4016004285983</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.272891771006</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833819</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>171.5573199799892</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1612,10 +1612,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206807</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174122</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703258</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>35.41770597126623</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,13 +2772,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>266.6707094398014</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3514,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3675,10 +3675,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>125.2851635392052</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554.3221432721089</v>
+        <v>962.9693282917576</v>
       </c>
       <c r="C2" t="n">
-        <v>185.3596263316971</v>
+        <v>962.9693282917576</v>
       </c>
       <c r="D2" t="n">
-        <v>74.81188663097703</v>
+        <v>604.7036296850072</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>218.9153770867629</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>211.9698763375595</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>198.0464722761504</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573122</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312042</v>
+        <v>1739.708500331691</v>
       </c>
       <c r="Y2" t="n">
-        <v>940.9219833362306</v>
+        <v>1349.569168355879</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4421,13 +4421,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.7458231623355</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="C4" t="n">
-        <v>517.7458231623355</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4512,28 +4512,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>517.7458231623355</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U4" t="n">
-        <v>517.7458231623355</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="V4" t="n">
-        <v>517.7458231623355</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="W4" t="n">
-        <v>517.7458231623355</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="X4" t="n">
-        <v>517.7458231623355</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="Y4" t="n">
-        <v>517.7458231623355</v>
+        <v>138.3857151273827</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>609.3508327416157</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>240.388315801204</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2648.399069430002</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2648.399069430002</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2648.399069430002</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2648.399069430002</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2317.336182086431</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>995.9506728057374</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150933</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>293.9109374418335</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>145.9978438594404</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>145.9978438594404</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>145.9978438594404</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>145.9978438594404</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>533.621179645333</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W7" t="n">
-        <v>533.621179645333</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="X7" t="n">
-        <v>533.621179645333</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.621179645333</v>
+        <v>444.0275768541693</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.992732478547</v>
+        <v>1710.685703078436</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.030215538135</v>
+        <v>1341.723186138024</v>
       </c>
       <c r="D8" t="n">
-        <v>863.7645169313847</v>
+        <v>983.457487531274</v>
       </c>
       <c r="E8" t="n">
-        <v>477.9762643331405</v>
+        <v>597.6692349330297</v>
       </c>
       <c r="F8" t="n">
-        <v>66.99035954353293</v>
+        <v>186.6833301434221</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202536</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202536</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>325.1460354086931</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>877.9592936548923</v>
       </c>
       <c r="M8" t="n">
-        <v>1658.154845695085</v>
+        <v>1064.6587064803</v>
       </c>
       <c r="N8" t="n">
-        <v>1852.489058587068</v>
+        <v>1691.966374540147</v>
       </c>
       <c r="O8" t="n">
-        <v>2022.658083904027</v>
+        <v>2239.127579307224</v>
       </c>
       <c r="P8" t="n">
-        <v>2451.973130243322</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4837,19 +4837,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2470.751301403638</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2470.751301403638</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2470.751301403638</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.73190451848</v>
+        <v>2097.285543142558</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.592572542669</v>
+        <v>2097.285543142558</v>
       </c>
     </row>
     <row r="9">
@@ -4874,13 +4874,13 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852434</v>
+        <v>200.7638166852433</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004796</v>
+        <v>99.84783883004795</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>172.6022336772601</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>538.7834855023629</v>
+        <v>663.2951601280365</v>
       </c>
       <c r="C10" t="n">
-        <v>369.8473025744559</v>
+        <v>494.3589772001296</v>
       </c>
       <c r="D10" t="n">
-        <v>219.7306631621202</v>
+        <v>344.2423377877939</v>
       </c>
       <c r="E10" t="n">
-        <v>71.81756957972706</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="F10" t="n">
-        <v>71.81756957972706</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>196.3292442054008</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>71.81756957972705</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>154.9909114159743</v>
@@ -4989,25 +4989,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>844.9436249582762</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>844.9436249582762</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>844.9436249582762</v>
       </c>
       <c r="W10" t="n">
-        <v>948.4215012306199</v>
+        <v>844.9436249582762</v>
       </c>
       <c r="X10" t="n">
-        <v>720.4319503326026</v>
+        <v>844.9436249582762</v>
       </c>
       <c r="Y10" t="n">
-        <v>720.4319503326026</v>
+        <v>844.9436249582762</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5032,61 +5032,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>810.0653816078141</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0125592675714</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2273.672861378251</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1984.597634722449</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1729.913146516562</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1212.506425581584</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>991.7138464380538</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5272,58 +5272,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M15" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1470.207143961552</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5548,19 +5548,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5606,10 +5606,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5743,10 +5743,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5755,16 +5755,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,7 +5773,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5946,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854706</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1419.02150088521</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6457,28 +6457,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6493,7 +6493,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>94.56320294380271</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>244.2098454714574</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>244.2098454714574</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
         <v>739.5354516872161</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6691,16 +6691,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6709,10 +6709,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,13 +6916,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332388</v>
@@ -6952,34 +6952,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7074,49 +7074,49 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2437.724555511392</v>
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168632</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7198,28 +7198,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>789.7592298206043</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>620.8230468926974</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2253.366709591041</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1964.291482935239</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1709.606994729352</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1420.189824692392</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.200273794374</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>971.4076946508441</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7651,16 +7651,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8227,7 +8227,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119835</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8455,25 +8455,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>275.3456371407394</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>315.4576428685618</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>56.94306717106264</v>
+        <v>56.94306717106267</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788569</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>45.84813034729905</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>57.22910392194309</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24612,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>19.85228889678962</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>92.12028678808304</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>610239.5014876032</v>
+        <v>610239.5014876033</v>
       </c>
     </row>
     <row r="15">
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642828</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642832</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.599690006</v>
       </c>
       <c r="H2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="I2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="L2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="K2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.5996900062</v>
-      </c>
       <c r="N2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900067</v>
       </c>
       <c r="O2" t="n">
         <v>807146.5996900062</v>
@@ -26374,25 +26374,25 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.691380806</v>
       </c>
       <c r="F3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.781995812663809e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012793</v>
+        <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682827</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682784</v>
+        <v>5677.536566682859</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682744</v>
+        <v>5677.536566682753</v>
       </c>
       <c r="H4" t="n">
         <v>5677.536566682745</v>
       </c>
       <c r="I4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.53656668272</v>
+      </c>
+      <c r="L4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
+        <v>5677.536566682704</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5677.536566682781</v>
+      </c>
+      <c r="O4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="K4" t="n">
+      <c r="P4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.0451708468</v>
+        <v>87562.04517084679</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-61707.60287670416</v>
+        <v>-61707.60287670439</v>
       </c>
       <c r="C6" t="n">
         <v>528260.2763378405</v>
       </c>
       <c r="D6" t="n">
-        <v>372456.4702440459</v>
+        <v>372456.4702440457</v>
       </c>
       <c r="E6" t="n">
-        <v>-71053.53733574682</v>
+        <v>-70740.89600682564</v>
       </c>
       <c r="F6" t="n">
-        <v>699999.1540450593</v>
+        <v>700311.7953739807</v>
       </c>
       <c r="G6" t="n">
-        <v>699999.1540450596</v>
+        <v>700311.7953739801</v>
       </c>
       <c r="H6" t="n">
-        <v>699999.1540450595</v>
+        <v>700311.7953739808</v>
       </c>
       <c r="I6" t="n">
-        <v>699999.1540450592</v>
+        <v>700311.7953739809</v>
       </c>
       <c r="J6" t="n">
-        <v>523575.9348524665</v>
+        <v>523888.5761813879</v>
       </c>
       <c r="K6" t="n">
-        <v>699999.1540450595</v>
+        <v>700311.7953739808</v>
       </c>
       <c r="L6" t="n">
-        <v>699999.1540450595</v>
+        <v>700311.7953739807</v>
       </c>
       <c r="M6" t="n">
-        <v>575790.643337001</v>
+        <v>576103.2846659222</v>
       </c>
       <c r="N6" t="n">
-        <v>699999.1540450593</v>
+        <v>700311.7953739812</v>
       </c>
       <c r="O6" t="n">
-        <v>699999.1540450595</v>
+        <v>700311.7953739808</v>
       </c>
       <c r="P6" t="n">
-        <v>699999.1540450595</v>
+        <v>700311.7953739808</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26749,7 +26749,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26968,25 +26968,25 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036085</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450928</v>
+        <v>498.4210153450924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>245.24077931697</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>181.2603172131291</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27545,16 +27545,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>72.5725828678471</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>16.75577602442652</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>190.7623767421583</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>6.215881202473838</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>43.831308373653</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>59.57491680833758</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27873,7 +27873,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>27.02097450386216</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>43.60808604372448</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28031,7 +28031,7 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>221.8940886826588</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
@@ -28073,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>182.1213979079927</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28092,10 +28092,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.54335762560769e-12</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28140,10 +28140,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28332,10 +28332,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28377,19 +28377,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>8.682195192673605e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28578,10 +28578,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-6.102654806131261e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717718</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192568</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,16 +32548,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,10 +32566,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,10 +33037,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>100.2764607028594</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,16 +33268,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>637.8521160493917</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>438.5310889592611</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>400.8433522134843</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,28 +34207,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34465,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.895655249223</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35175,25 +35175,25 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>463.9309026209492</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>427.3104966559624</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>191.3582339884385</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359236</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,10 +36214,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,10 +36685,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7540807028594299</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>499.2977362695175</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>300.6896499849021</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>266.868944799154</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38113,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
